--- a/LabsGrilleDeCorrection.xlsx
+++ b/LabsGrilleDeCorrection.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ccnbca-my.sharepoint.com/personal/dimitri_viel_ccnb_ca/Documents/Prog1343/Lab2 - Globex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ccnbca-my.sharepoint.com/personal/dimitri_viel_ccnb_ca/Documents/Prog1343/Lab3 - Umbrella Corporation/Groupe2/Lab3-UmbrellaCorp-Groupe2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{7AB2CD5E-D875-4634-96BE-3587703DCB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0262A11-9EDA-4A11-B61B-BE6655BD7A28}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{7AB2CD5E-D875-4634-96BE-3587703DCB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA326859-9B5F-4A24-A1C5-16B92E3F4167}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{6E104A93-42AC-4B01-B277-A83AFE77E344}"/>
+    <workbookView xWindow="-57120" yWindow="6540" windowWidth="43200" windowHeight="23385" xr2:uid="{6E104A93-42AC-4B01-B277-A83AFE77E344}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Exigences</t>
   </si>
@@ -94,6 +93,21 @@
   </si>
   <si>
     <t>Commentaires</t>
+  </si>
+  <si>
+    <t>inconsistance dans la présentation des produits (computer products)</t>
+  </si>
+  <si>
+    <t>menu fait bouger la barre du header, qui fait bouger le reste de la page</t>
+  </si>
+  <si>
+    <t>aucune distinction entre le contenu (style et html sont dans le même fichier, images sont à part(bien)</t>
+  </si>
+  <si>
+    <t>aucune description de la navigation du site web</t>
+  </si>
+  <si>
+    <t>manque de commentaires dans les sections HTML</t>
   </si>
 </sst>
 </file>
@@ -149,10 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,17 +464,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13015D56-4554-4253-AD0C-2910E2AEE6AE}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,111 +488,173 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>9.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>9.5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -592,73 +664,75 @@
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16">
         <f>C15/B15*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>